--- a/manifest_controlled_vocabularies.xlsx
+++ b/manifest_controlled_vocabularies.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhuot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BBA5B60-A2E1-FD49-B4CF-3D3E51B40722}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08026361-21A9-A648-834E-6B2E21ADD9E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="840" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest_template" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>bed</t>
   </si>
   <si>
-    <t>tab</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
@@ -700,12 +697,6 @@
     <t>nowakowski_evobc</t>
   </si>
   <si>
-    <t>For BICCN projects only. BCDC code for project that describes a given dataset; reflects grouping of data for reporting purposes</t>
-  </si>
-  <si>
-    <t>For BICCN projects only. BCDC code for collection within the project; reflects grouping of data for reporting purposes</t>
-  </si>
-  <si>
     <t>gru</t>
   </si>
   <si>
@@ -718,24 +709,33 @@
     <t>other</t>
   </si>
   <si>
-    <t>For controlled access data only; consent group for data use</t>
-  </si>
-  <si>
-    <t>For controlled access data only; Institutional Certification identifier</t>
-  </si>
-  <si>
-    <t>For controlled access data only; Unique identifier of individual donor providing sample</t>
-  </si>
-  <si>
-    <t>For controlled access data only; Lab or PI last name providing tissue</t>
+    <t>tsv</t>
+  </si>
+  <si>
+    <t>For BICCN projects only: BCDC code for project that describes a given dataset; reflects grouping of data for reporting purposes (Optional)</t>
+  </si>
+  <si>
+    <t>For BICCN projects only: BCDC code for collection within the project; reflects grouping of data for reporting purposes (Optional)</t>
+  </si>
+  <si>
+    <t>For controlled access data only: consent group for data use (Optional)</t>
+  </si>
+  <si>
+    <t>For controlled access data only: Institutional Certification identifier (Optional)</t>
+  </si>
+  <si>
+    <t>For controlled access data only: Unique identifier of individual donor providing sample (Optional)</t>
+  </si>
+  <si>
+    <t>For controlled access data only: Lab or PI last name providing tissue (Optional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1299,7 +1299,7 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1323,9 +1323,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1680,11 +1680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>5</v>
@@ -1759,43 +1759,43 @@
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>206</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>229</v>
@@ -1821,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -1833,10 +1833,10 @@
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>46</v>
@@ -1854,7 +1854,7 @@
         <v>83</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>10</v>
@@ -1871,22 +1871,22 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>47</v>
@@ -1895,7 +1895,7 @@
         <v>115</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>62</v>
@@ -1904,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>10</v>
@@ -1921,31 +1921,31 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>63</v>
@@ -1954,7 +1954,7 @@
         <v>85</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1968,10 +1968,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>41</v>
@@ -1980,13 +1980,13 @@
         <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="6" t="s">
@@ -1996,7 +1996,7 @@
         <v>102</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2011,7 +2011,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2019,10 +2019,10 @@
         <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="6" t="s">
@@ -2045,12 +2045,12 @@
         <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
@@ -2082,7 +2082,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
@@ -2093,7 +2093,7 @@
         <v>64</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2109,16 +2109,16 @@
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="s">
@@ -2138,21 +2138,21 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>104</v>
@@ -2168,10 +2168,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2199,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2208,10 +2208,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2307,7 +2307,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2333,7 +2333,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2371,7 +2371,7 @@
         <v>60</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2385,7 +2385,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2397,7 +2397,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2411,7 +2411,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2423,7 +2423,7 @@
         <v>79</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2437,7 +2437,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2463,7 +2463,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2475,7 +2475,7 @@
         <v>59</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2489,7 +2489,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2541,7 +2541,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2553,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2567,7 +2567,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2579,7 +2579,7 @@
         <v>71</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2593,7 +2593,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2641,7 +2641,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2665,7 +2665,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2675,7 +2675,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2699,7 +2699,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2723,7 +2723,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2737,7 +2737,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2747,7 +2747,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2809,7 +2809,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2833,7 +2833,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2857,7 +2857,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2867,7 +2867,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
@@ -2881,7 +2881,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2905,7 +2905,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2929,7 +2929,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2939,7 +2939,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -2977,7 +2977,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3001,7 +3001,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3025,7 +3025,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3049,7 +3049,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3073,7 +3073,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3097,7 +3097,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3121,7 +3121,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3189,7 +3189,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3211,7 +3211,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3233,7 +3233,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3255,7 +3255,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3277,7 +3277,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3299,7 +3299,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3365,7 +3365,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3409,7 +3409,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3431,7 +3431,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3453,7 +3453,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3475,7 +3475,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3497,7 +3497,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3519,7 +3519,7 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3563,7 +3563,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3585,7 +3585,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>

--- a/manifest_controlled_vocabularies.xlsx
+++ b/manifest_controlled_vocabularies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhuot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08026361-21A9-A648-834E-6B2E21ADD9E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D3D7FE-7FBA-674A-A479-051FE2431E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="248">
   <si>
     <t>File_name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>marmoset</t>
   </si>
   <si>
-    <t>transcriptomics</t>
-  </si>
-  <si>
     <t>multimodal</t>
   </si>
   <si>
@@ -400,15 +397,6 @@
     <t>embargo</t>
   </si>
   <si>
-    <t>If you are unsure of the proper program designation, please reach out to nemo@som.umaryland.edu</t>
-  </si>
-  <si>
-    <t>PI of the lab under which data was generated. If your lab is not listed, please contact nemo@som.umaryland.edu</t>
-  </si>
-  <si>
-    <t>epigenomics</t>
-  </si>
-  <si>
     <t>Technique</t>
   </si>
   <si>
@@ -448,9 +436,6 @@
     <t>A submission-unique file name only, with no directory path information</t>
   </si>
   <si>
-    <t>For the most part, this corresponds to a single grant. If you do not see your grant or are unsure of the proper sub-program, please reach out to nemo@som.umaryland.edu</t>
-  </si>
-  <si>
     <t>U01_zhangk</t>
   </si>
   <si>
@@ -595,9 +580,6 @@
     <t>weissmann</t>
   </si>
   <si>
-    <t>eest</t>
-  </si>
-  <si>
     <t>wickersham</t>
   </si>
   <si>
@@ -622,9 +604,6 @@
     <t>allen brain map</t>
   </si>
   <si>
-    <t>spatial_transcriptomics</t>
-  </si>
-  <si>
     <t>U01_snyder-mackler</t>
   </si>
   <si>
@@ -643,12 +622,6 @@
     <t>Omics technique performed</t>
   </si>
   <si>
-    <t>Format of file</t>
-  </si>
-  <si>
-    <t>Access level of data</t>
-  </si>
-  <si>
     <t>huang_sn_10v2_proj</t>
   </si>
   <si>
@@ -728,6 +701,78 @@
   </si>
   <si>
     <t>For controlled access data only: Lab or PI last name providing tissue (Optional)</t>
+  </si>
+  <si>
+    <t>Counts_pipeline</t>
+  </si>
+  <si>
+    <t>Read_aligner</t>
+  </si>
+  <si>
+    <t>Genome_build</t>
+  </si>
+  <si>
+    <t>Gene_set_release</t>
+  </si>
+  <si>
+    <t>Consented access level of data</t>
+  </si>
+  <si>
+    <t>Data_type</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>Format of file, used for validation. If you are submitting a file type other than those listed here, please contact NeMO to prevent processing delays</t>
+  </si>
+  <si>
+    <t>Indicates whether data is raw sequence or processed</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>CV coming soon</t>
+  </si>
+  <si>
+    <t>For Counts data only: Pipeline used for generation of counts results. See NeMO documentation for explanation of pipeline names, or contact NeMO to add new pipeline(s) to the list (Optional)</t>
+  </si>
+  <si>
+    <t>For Aligned data only: Tool or pipeline used to generate alignments. See NeMO documentation for explanation of pipeline names, or contact NeMO to add new pipeline(s) to the list (Optional)</t>
+  </si>
+  <si>
+    <t>For Aligned data only: Genome build of the reference used for alignment (Optional)</t>
+  </si>
+  <si>
+    <t>For Aligned data only: Release of the reference used for alignment (Optional)</t>
+  </si>
+  <si>
+    <t>If you are unsure of the proper program designation, please contact NeMO</t>
+  </si>
+  <si>
+    <t>For the most part, this corresponds to a single grant. Contact NeMO to add additional terms</t>
+  </si>
+  <si>
+    <t>PI of the lab under which data was generated. Contact NeMO to add additional terms</t>
+  </si>
+  <si>
+    <t>epigenome</t>
+  </si>
+  <si>
+    <t>transcriptome</t>
+  </si>
+  <si>
+    <t>spatial_transcriptome</t>
+  </si>
+  <si>
+    <t>mC-seq2, retrograde tracing</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1341,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1326,6 +1371,10 @@
     <xf numFmtId="164" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1681,24 +1730,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
-    <col min="2" max="12" width="18.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="18.83203125" style="1" customWidth="1"/>
-    <col min="19" max="256" width="18.83203125" customWidth="1"/>
+    <col min="2" max="17" width="18.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="261" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1724,93 +1773,123 @@
         <v>4</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>227</v>
+      <c r="B2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
@@ -1821,10 +1900,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -1833,134 +1912,163 @@
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>83</v>
+      <c r="N3" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>224</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1968,41 +2076,46 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2011,32 +2124,37 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2045,30 +2163,35 @@
         <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2082,25 +2205,30 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2109,88 +2237,105 @@
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2199,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2207,18 +2352,23 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2227,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2235,18 +2385,23 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2255,7 +2410,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2263,18 +2418,23 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2289,25 +2449,30 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2315,25 +2480,30 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2341,18 +2511,23 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2367,25 +2542,30 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2393,25 +2573,30 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>216</v>
-      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2419,25 +2604,30 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2445,25 +2635,30 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2471,25 +2666,30 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2497,18 +2697,23 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2523,25 +2728,30 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2549,25 +2759,30 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2575,25 +2790,30 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2602,15 +2822,20 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2625,23 +2850,28 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="5"/>
+      <c r="S29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2650,22 +2880,27 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2674,15 +2909,20 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2698,15 +2938,20 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2722,22 +2967,27 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2746,15 +2996,20 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2770,15 +3025,20 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2794,22 +3054,27 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2818,22 +3083,27 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2842,22 +3112,27 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2866,22 +3141,27 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2890,22 +3170,27 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2914,22 +3199,27 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2938,15 +3228,20 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2962,22 +3257,27 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2986,22 +3286,27 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3010,22 +3315,27 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3034,22 +3344,27 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3058,22 +3373,27 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3082,22 +3402,27 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3106,22 +3431,27 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3130,15 +3460,20 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3159,8 +3494,13 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3181,15 +3521,20 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3203,15 +3548,20 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3225,15 +3575,20 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3247,15 +3602,20 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3269,15 +3629,20 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3291,15 +3656,20 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3313,8 +3683,13 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3335,8 +3710,13 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3357,15 +3737,20 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3379,8 +3764,13 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3401,15 +3791,20 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3423,15 +3818,20 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3445,15 +3845,20 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3467,15 +3872,20 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3489,15 +3899,20 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3511,15 +3926,20 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3533,8 +3953,13 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3555,15 +3980,20 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3577,15 +4007,20 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3599,67 +4034,87 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="C72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="D72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="E72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="F72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="G72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="H72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="I72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="J72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="K72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="L72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="M72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="N72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="O72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="P72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="Q72" s="20">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="R72" s="20">
-        <v>44260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44266</v>
+      </c>
+      <c r="S72" s="20">
+        <v>44266</v>
+      </c>
+      <c r="T72" s="20">
+        <v>44266</v>
+      </c>
+      <c r="U72" s="20">
+        <v>44266</v>
+      </c>
+      <c r="V72" s="20">
+        <v>44266</v>
+      </c>
+      <c r="W72" s="20">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F76" s="11"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F79" s="11"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
@@ -3684,8 +4139,8 @@
       <c r="F107" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:N50">
-    <sortCondition ref="N3:N50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:S50">
+    <sortCondition ref="S3:S50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/manifest_controlled_vocabularies.xlsx
+++ b/manifest_controlled_vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhuot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D3D7FE-7FBA-674A-A479-051FE2431E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B09FD9-FA2B-0D4C-9CDB-0653A141AB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30860" yWindow="-7220" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest_template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="250">
   <si>
     <t>File_name</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>mC-seq2, retrograde tracing</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>An MD5 checksum must be provided for every file</t>
   </si>
 </sst>
 </file>
@@ -1730,24 +1736,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
-    <col min="2" max="17" width="18.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="18.83203125" style="1" customWidth="1"/>
-    <col min="24" max="261" width="18.83203125" customWidth="1"/>
+    <col min="2" max="18" width="18.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="18.83203125" style="1" customWidth="1"/>
+    <col min="25" max="262" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1788,37 +1794,40 @@
         <v>48</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -1858,38 +1867,41 @@
       <c r="M2" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>236</v>
@@ -1941,17 +1953,17 @@
       <c r="Q3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>10</v>
@@ -1959,8 +1971,11 @@
       <c r="W3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1998,17 +2013,15 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="4"/>
+      <c r="S4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>10</v>
@@ -2016,8 +2029,11 @@
       <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2055,20 +2071,21 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2102,20 +2119,21 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2143,18 +2161,19 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2180,18 +2199,19 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2217,18 +2237,19 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2254,18 +2275,19 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2289,18 +2311,19 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2324,18 +2347,19 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2357,18 +2381,19 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2390,18 +2415,19 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="4"/>
+      <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2423,18 +2449,19 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2454,18 +2481,19 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="4"/>
+      <c r="S16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2485,18 +2513,19 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2516,18 +2545,19 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2547,18 +2577,19 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="4"/>
+      <c r="S19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2578,18 +2609,19 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2609,18 +2641,19 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2640,18 +2673,19 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="4"/>
+      <c r="S22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2671,18 +2705,19 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="T23" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2702,18 +2737,19 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2733,18 +2769,19 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="6" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2764,18 +2801,19 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2795,18 +2833,19 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2827,15 +2866,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2855,16 +2895,17 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="6" t="s">
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2885,15 +2926,16 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2914,15 +2956,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2943,15 +2986,16 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2972,15 +3016,16 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="4"/>
+      <c r="T33" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3001,15 +3046,16 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3030,15 +3076,16 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="5" t="s">
+      <c r="S35" s="4"/>
+      <c r="T35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3059,15 +3106,16 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3088,15 +3136,16 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="6" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3117,15 +3166,16 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="6" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3146,15 +3196,16 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="5" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3175,15 +3226,16 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="4"/>
+      <c r="T40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3204,15 +3256,16 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="4"/>
+      <c r="T41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3233,15 +3286,16 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="4"/>
+      <c r="T42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3262,15 +3316,16 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="6" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3291,15 +3346,16 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="6" t="s">
+      <c r="S44" s="4"/>
+      <c r="T44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3320,15 +3376,16 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="6" t="s">
+      <c r="S45" s="4"/>
+      <c r="T45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3349,15 +3406,16 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="6" t="s">
+      <c r="S46" s="4"/>
+      <c r="T46" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3378,15 +3436,16 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="6" t="s">
+      <c r="S47" s="4"/>
+      <c r="T47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3407,15 +3466,16 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="6" t="s">
+      <c r="S48" s="4"/>
+      <c r="T48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3436,15 +3496,16 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="6" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3465,15 +3526,16 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="6" t="s">
+      <c r="S50" s="4"/>
+      <c r="T50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3499,8 +3561,9 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3526,8 +3589,9 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3553,8 +3617,9 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3580,8 +3645,9 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3607,8 +3673,9 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3634,8 +3701,9 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3661,8 +3729,9 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3688,8 +3757,9 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="4"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3715,8 +3785,9 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="4"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3742,8 +3813,9 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3769,8 +3841,9 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3796,8 +3869,9 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="4"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3823,8 +3897,9 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3850,8 +3925,9 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3877,8 +3953,9 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3904,8 +3981,9 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3931,8 +4009,9 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3958,8 +4037,9 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3985,8 +4065,9 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4012,8 +4093,9 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4039,8 +4121,9 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-    </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>9</v>
       </c>
@@ -4080,9 +4163,7 @@
       <c r="M72" s="20">
         <v>44266</v>
       </c>
-      <c r="N72" s="20">
-        <v>44266</v>
-      </c>
+      <c r="N72" s="20"/>
       <c r="O72" s="20">
         <v>44266</v>
       </c>
@@ -4110,11 +4191,14 @@
       <c r="W72" s="20">
         <v>44266</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="20">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F76" s="11"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F79" s="11"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
@@ -4139,8 +4223,8 @@
       <c r="F107" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:S50">
-    <sortCondition ref="S3:S50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:T50">
+    <sortCondition ref="T3:T50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/manifest_controlled_vocabularies.xlsx
+++ b/manifest_controlled_vocabularies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhuot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20402CF2-9384-E044-A90F-EF15C22ED48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963718B-DAF5-D04A-ABAA-E011C35D01C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30860" yWindow="-7220" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="257">
   <si>
     <t>File_name</t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t>Name of anatomical structure from which sample was obtained (Optional, ro be required for Q2 submission)</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>nowakowski_PNdev_proj</t>
+  </si>
+  <si>
+    <t>nowakowski_PNdev_10xv3</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1381,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1410,6 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1767,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2354,9 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2925,7 +2937,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="T28" s="25" t="s">
+        <v>255</v>
+      </c>
       <c r="U28" s="6" t="s">
         <v>91</v>
       </c>
@@ -3639,7 +3653,9 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
+      <c r="U51" s="25" t="s">
+        <v>256</v>
+      </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
